--- a/Apt_app/modera_decatur.xlsx
+++ b/Apt_app/modera_decatur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlp\Documents\GitHub\nus_apartment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlp\Documents\GitHub\nus_apartment\Apt_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA5A31C-9EEF-4164-963E-418E1E3253EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A887BC-8781-4CCE-AEB1-037DE332D0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="5205" windowWidth="16875" windowHeight="9195" xr2:uid="{0613D09A-7280-4844-B453-E571AA672FAC}"/>
+    <workbookView xWindow="5625" yWindow="5205" windowWidth="16875" windowHeight="9195" firstSheet="5" activeTab="10" xr2:uid="{0613D09A-7280-4844-B453-E571AA672FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Identification" sheetId="2" r:id="rId1"/>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D145247-AE8D-4F7D-81BB-CCC144682843}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA196-FC76-4565-9BCA-48468CDE8348}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -904,10 +904,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Apt_app/modera_decatur.xlsx
+++ b/Apt_app/modera_decatur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlp\Documents\GitHub\nus_apartment\Apt_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A887BC-8781-4CCE-AEB1-037DE332D0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BEC0EE-A3CF-4B92-9182-6D313AB5D07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="5205" windowWidth="16875" windowHeight="9195" firstSheet="5" activeTab="10" xr2:uid="{0613D09A-7280-4844-B453-E571AA672FAC}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>Address</t>
   </si>
@@ -328,16 +328,7 @@
     <t>Cost_overrun</t>
   </si>
   <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t>expense_sensitivity</t>
-  </si>
-  <si>
     <t>cpi+.01</t>
-  </si>
-  <si>
-    <t>revenue_sensitivity</t>
   </si>
   <si>
     <t>ProjectName</t>
@@ -737,7 +728,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -878,7 +869,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399DA196-FC76-4565-9BCA-48468CDE8348}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -904,10 +895,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF6FA6-86BA-44C6-930E-9327A33FA58E}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1210,14 +1209,6 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1225,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03C2508-7A59-43F9-A39B-16656D2BC02C}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1386,14 +1377,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1401,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CA4446-BDCA-40AA-A549-CCDDEA333C10}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1478,14 +1461,6 @@
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1541,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E0963A-52B8-4079-B831-243F6B7AA707}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1608,7 +1583,7 @@
         <v>250000</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1622,7 +1597,7 @@
         <v>800000</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -1634,14 +1609,6 @@
       </c>
       <c r="F5" s="2">
         <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
